--- a/biology/Botanique/Jardin_botanique_de_Palerme/Jardin_botanique_de_Palerme.xlsx
+++ b/biology/Botanique/Jardin_botanique_de_Palerme/Jardin_botanique_de_Palerme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Jardin botanique de Palerme (Orto botanico di Palermo) situé à Palerme (Sicile) est une institution du département de botanique de l'université de Palerme.
 </t>
@@ -511,7 +523,9 @@
           <t>Aperçu historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son origine remonte à 1779, à la création de la Regia Accademia degli Studi (devenue université en 1806). Pour sa nouvelle chaire de botanique et d'histoire naturelle, la Regia Accademia obtint de la ville un modeste terrain pour y installer un petit jardin botanique consacré à la culture des plantes médicinales utiles à l’enseignement et à la santé publique.
 Ce premier jardin se révéla rapidement inadapté aux besoins et en 1786 on décida de le transférer dans son site actuel, près du Plan de Saint-Érasme, tristement connu à l’époque comme siège des bûchers de la Sainte Inquisition. En 1789, on commença la construction du corps principal des bâtiments du Jardin, de style néoclassique. Il est composé d’un édifice central, le Gymnasium, et de deux ailes, le Tepidarium et le Calidarium, conçus par l'architecte français Léon Dufourny, à qui l’on doit également l'implantation de la partie la plus ancienne du jardin, proche du Gymnasium, selon un schéma rectangulaire, subdivisé en quatre parallélogrammes, dans lesquels les espèces sont arrangées selon le système de classification de Linné. Le nouveau jardin fut inauguré en 1795 ; il s’enrichit dans les années qui suivirent de l’Acquarium (1798), un grand bassin dans laquelle prospèrent de nombreuses espèces de plantes aquatiques, et de la serre Marie-Caroline, achevée en 1823. Le grand Ficus magnolioides, qui est devenu le symbole du Jardin moderne, fut importé de l'Île Norfolk (Australie) en 1845. L'extension actuelle, d’environ dix hectares, fut atteinte seulement en 1892, à la suite d’agrandissements successifs. En 1913 on le dota d’un Jardin colonial supprimé par la suite. Depuis 1985, le jardin est placé sous la responsabilité du Département des sciences botaniques.
@@ -546,68 +560,354 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gymnasium, caldarium et tepidarium
-Face à la grille d’entrée se trouve le bâtiment central de style néoclassique du Gymnasium (1), qui était à l’origine le siège de la Schola Regia Botanice, de l’herbier, de la bibliothèque et de la résidence du directeur. Dans la salle centrale du Gymnasium, se trouve la chaire du "démonstrateur" des plantes médicinales de la Schola. Cette salle est entourée de vitrines où sont conservées différentes collections de semences, fruits et autres matériaux. Sur la partie centrale de la voûte qui symbolise la déesse Flora, apparaît l'inscription Omne tulit punctum qui miscuit utile dulci[1], synthèse des sciences botano-pharmaceutiques d'il y a deux siècles.
+          <t>Gymnasium, caldarium et tepidarium</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Face à la grille d’entrée se trouve le bâtiment central de style néoclassique du Gymnasium (1), qui était à l’origine le siège de la Schola Regia Botanice, de l’herbier, de la bibliothèque et de la résidence du directeur. Dans la salle centrale du Gymnasium, se trouve la chaire du "démonstrateur" des plantes médicinales de la Schola. Cette salle est entourée de vitrines où sont conservées différentes collections de semences, fruits et autres matériaux. Sur la partie centrale de la voûte qui symbolise la déesse Flora, apparaît l'inscription Omne tulit punctum qui miscuit utile dulci, synthèse des sciences botano-pharmaceutiques d'il y a deux siècles.
 Deux constructions plus petites sont disposées symétriquement de part et d’autre du Gymnasium. Elles sont encore appelées caldarium (2) et tepidarium (3) parce qu'à l’origine elles accueillaient des plantes respectivement de climats chaud et tempéré.
-Le système linnéen
-C'est le secteur le plus ancien du Jardin, réalisé suivant un schéma rectangulaire, subdivisé en quatre parallélogrammes, les quartini (4), chacun d’eux étant à son tour subdivisé en plates-bandes dans lesquelles les plantes étaient à l’origine disposées selon la classification linnéenne. L'implantation originale de ce secteur a subi des modifications dans le temps, du fait de la croissance de certains plants de grande taille au détriment des plantes voisines qui, dominées, ont progressivement disparu. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jardin_botanique_de_Palerme</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_botanique_de_Palerme</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Structure et collections</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Le système linnéen</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est le secteur le plus ancien du Jardin, réalisé suivant un schéma rectangulaire, subdivisé en quatre parallélogrammes, les quartini (4), chacun d’eux étant à son tour subdivisé en plates-bandes dans lesquelles les plantes étaient à l’origine disposées selon la classification linnéenne. L'implantation originale de ce secteur a subi des modifications dans le temps, du fait de la croissance de certains plants de grande taille au détriment des plantes voisines qui, dominées, ont progressivement disparu. 
 Au centre du système linnéen, particulièrement suggestive, se trouve la « croisée » (crociera), petite placette au croisement de l’allée centrale avec l’allée des palmiers.
-L’Aquarium et les autres bassins
-Au fond de l'allée centrale, se trouve l’Aquarium (5), un grand bassin circulaire subdivisé en 24 compartiments, obtenus par le découpage radial en huit parties de trois secteurs concentriques, qui accueille de nombreuses espèces aquatiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jardin_botanique_de_Palerme</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_botanique_de_Palerme</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Structure et collections</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>L’Aquarium et les autres bassins</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au fond de l'allée centrale, se trouve l’Aquarium (5), un grand bassin circulaire subdivisé en 24 compartiments, obtenus par le découpage radial en huit parties de trois secteurs concentriques, qui accueille de nombreuses espèces aquatiques.
 À quelques mètres de l'Aquarium se trouve le petit lac (laghetto), un autre grand bassin dans lequel les plantes sont disposées de manière naturelle. D’autres bassins plus petits se trouvent dans les quartini du système linnéen.
-Les serres
-Le Jardin s’est enrichi avec le temps d’un ensemble de serres qui couvrent actuellement environ 1300 m2.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jardin_botanique_de_Palerme</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_botanique_de_Palerme</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Structure et collections</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Les serres</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le Jardin s’est enrichi avec le temps d’un ensemble de serres qui couvrent actuellement environ 1300 m2.
 La plus ancienne d’entre elles est la serre Marie-Caroline (6), don de la reine Marie-Caroline d'Autriche, connue aussi sous le nom de Jardin d’hiver. À l’origine elle fut construite en bois et chauffée par des poêles ; puis, dans la seconde moitié du XIXe siècle, elle fut reconstruite en fonte.
 Autres serres :
 la serre des succulentes, hébergeant des plantes de milieux chauds et arides (7)
 la serre expérimentale, qui accueille actuellement des bananiers et papayers (8)
 la serre de la Région, qui abrite des plantes de milieux chauds et humides (9)
 la serre pour le sauvetage des succulentes, annexée au Département des sciences botaniques (10)
-la serre des fougères (11)
-Arrangements bioécologiques
-Dans ce secteur, les plantes sont disposées selon des critères bioécologiques et géographiques. On y trouve le Jardin des succulentes (12), constitué de nombreuses espèces des milieux arides africains, le Palmetum (13), le Cycadetum (14), et la collinette méditerranéenne (15) qui accueille des espèces représentatives de la flore spontanée méditerranéenne, y compris diverses espèces endémiques et quelques raretés.
-Secteur expérimental
-Dans le secteur expérimental (16), situé derrière le Jardin d’hiver, on cultive des plantes tropicales et subtropicales objet d'études terminées ou en cours, telles que le cotonnier, les agrumes, la canne à sucre, le sorgho. Le secteur des essences utiles (17), qui s'étend sur le versant sud-ouest du jardin, comprend des zones réservées aux plantes officinales, textiles, à résine et à caoutchouc, à huile, à essence et à écorce.
-Secteur d’Engler
-Connu aussi comme le secteur neuf (18), il comprend la partie méridionale du Jardin, dans laquelle les plantes sont disposées selon la classification d’Engler. Les espèces sont réparties en trois secteurs, dédiés respectivement aux gymnospermes, aux angiospermes dicotylédones et monocotylédones.
-L'Herbier
-L’Herbier méditerranéen moderne, abrité dans des bâtiments adjacents au Jardin (19), s’étend sur une superficie d’environ 6000 m².
+la serre des fougères (11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jardin_botanique_de_Palerme</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_botanique_de_Palerme</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Structure et collections</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Arrangements bioécologiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans ce secteur, les plantes sont disposées selon des critères bioécologiques et géographiques. On y trouve le Jardin des succulentes (12), constitué de nombreuses espèces des milieux arides africains, le Palmetum (13), le Cycadetum (14), et la collinette méditerranéenne (15) qui accueille des espèces représentatives de la flore spontanée méditerranéenne, y compris diverses espèces endémiques et quelques raretés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jardin_botanique_de_Palerme</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_botanique_de_Palerme</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Structure et collections</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Secteur expérimental</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le secteur expérimental (16), situé derrière le Jardin d’hiver, on cultive des plantes tropicales et subtropicales objet d'études terminées ou en cours, telles que le cotonnier, les agrumes, la canne à sucre, le sorgho. Le secteur des essences utiles (17), qui s'étend sur le versant sud-ouest du jardin, comprend des zones réservées aux plantes officinales, textiles, à résine et à caoutchouc, à huile, à essence et à écorce.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jardin_botanique_de_Palerme</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_botanique_de_Palerme</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Structure et collections</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Secteur d’Engler</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Connu aussi comme le secteur neuf (18), il comprend la partie méridionale du Jardin, dans laquelle les plantes sont disposées selon la classification d’Engler. Les espèces sont réparties en trois secteurs, dédiés respectivement aux gymnospermes, aux angiospermes dicotylédones et monocotylédones.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jardin_botanique_de_Palerme</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_botanique_de_Palerme</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Structure et collections</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>L'Herbier</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’Herbier méditerranéen moderne, abrité dans des bâtiments adjacents au Jardin (19), s’étend sur une superficie d’environ 6000 m².
 La partie principale des collections est constituée par l’Herbier sicilien et par l’Herbier général du Département des sciences botaniques, estimés respectivement à environ 50 000 et 200 000 spécimens, un quart environ de ces derniers est de provenance méditerranéenne.
 Le matériel non-sicilien est constitué par des collections provenant du Portugal, d’Espagne, de France, de Corse, de Sardaigne, de Grèce, de Crète, de Chypre, d’Algérie et d’Égypte.
 Il comprend aussi environ 2000 algues, 1600 lichens, 4700 bryophytes et un millier de mycètes.
-La banque du germoplasme
-La banque du germoplasme, sortie en 1993, s’inscrit dans le cadre d’un projet de sauvegarde du patrimoine génétique de la flore de l'aire méditerranéenne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Jardin_botanique_de_Palerme</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_botanique_de_Palerme</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Structure et collections</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>La banque du germoplasme</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La banque du germoplasme, sortie en 1993, s’inscrit dans le cadre d’un projet de sauvegarde du patrimoine génétique de la flore de l'aire méditerranéenne.
 Les fonctions spécifiques de la banque sont la conservation ex situ à long et à court terme des espèces endémiques, rares ou menacées.  Les semences des plantes, une fois récoltées et cataloguées, sont soumises à des traitements adaptés et conservées dans des ampoules de verre, à disposition des institutions par échange. Les graines ainsi conservées sont soumises à des essais périodiques de germination et de vitalité.
-La banque fait partie du réseau RIBES [1] (Réseau italien des banques de conservation ex-situ du germoplasme).
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Jardin_botanique_de_Palerme</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jardin_botanique_de_Palerme</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+La banque fait partie du réseau RIBES  (Réseau italien des banques de conservation ex-situ du germoplasme).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Jardin_botanique_de_Palerme</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_botanique_de_Palerme</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Espèces présentes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin botanique de Palerme héberge actuellement plus de 12 000 espèces différentes.
 Créé à l'époque des grandes explorations scientifiques, le Jardin palermitain devint, entre la seconde moitié du XIXe siècle et les premières décennies du XXe siècle, le point de référence des grands jardins botaniques du Nord de l'Europe qui, du fait du climat favorable, y transférèrent de nombreuses espèces encore inconnues ou mal classées de la flore exotique tropicale. Très importantes furent, de ce point de vue, la relation établie avec le Jardin botanique de Berlin, sous la direction d’Adolf Engler, et celles entretenues avec les régions d'origine de nombreuses espèces exotiques asiatiques, africaines, australiennes et sud-américaines.
@@ -626,31 +926,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Jardin_botanique_de_Palerme</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jardin_botanique_de_Palerme</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Jardin_botanique_de_Palerme</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_botanique_de_Palerme</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Curiosité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin héberge depuis plusieurs années une colonie d'une dizaine de perroquets de l'espèce  Psittacula krameri, échappés des volières voisines de la villa Giulia et acclimatés dans l'habitat subtropical du jardin.
 </t>
